--- a/Database Design/2021-04-02/에이소프트 논리데이터베이스 명세서 v1.0.xlsx
+++ b/Database Design/2021-04-02/에이소프트 논리데이터베이스 명세서 v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GB-DEV-009\Documents\git_moreOne\Database Design\2021-04-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FBC092-E330-4765-8FCD-9EED7DA91B34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8C9491-CC7E-4AF3-A491-0BFFD1FA9A11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{3698464E-08BC-4E05-AA62-D1958DFB46C6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="151">
   <si>
     <t>논리테이블명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -620,6 +620,14 @@
   </si>
   <si>
     <t>ECTY_FLW_VAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습 데이터 파일 IDX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LERN_DATA_FILE_IDX</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1062,7 +1070,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E90B04-284A-45F6-871D-4A5CEA361862}">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1144,7 +1154,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G33" si="0">CONCATENATE(IF($E2 = "CLOB", "LONGTEXT", $E2),IF(ISBLANK($F2),"",CONCATENATE("(",$F2,")")))</f>
+        <f t="shared" ref="G2:G32" si="0">CONCATENATE(IF($E2 = "CLOB", "LONGTEXT", $E2),IF(ISBLANK($F2),"",CONCATENATE("(",$F2,")")))</f>
         <v>VARCHAR(20)</v>
       </c>
       <c r="H2" s="3" t="b">
@@ -1160,7 +1170,7 @@
         <v>45</v>
       </c>
       <c r="N2" s="3" t="str">
-        <f t="shared" ref="N2:N33" si="1">CONCATENATE($D2, " ", $G2, IF($I2, " PRIMARY KEY", IF($H2, "", " NOT NULL")), IF(ISBLANK($L2), "", CONCATENATE(" DEFAULT ", $L2)), " COMMENT ", """", $C2, """", ",")</f>
+        <f t="shared" ref="N2:N32" si="1">CONCATENATE($D2, " ", $G2, IF($I2, " PRIMARY KEY", IF($H2, "", " NOT NULL")), IF(ISBLANK($L2), "", CONCATENATE(" DEFAULT ", $L2)), " COMMENT ", """", $C2, """", ",")</f>
         <v>ENTRP_IDX VARCHAR(20) PRIMARY KEY COMMENT "기업 IDX",</v>
       </c>
     </row>
@@ -1856,20 +1866,20 @@
         <v>95</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>VARCHAR(20)</v>
+        <v>VARCHAR(10)</v>
       </c>
       <c r="H21" s="3" t="b">
         <v>1</v>
@@ -1883,7 +1893,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>SRL_NO VARCHAR(20) COMMENT "시리얼 번호",</v>
+        <v>VLTG_KIND VARCHAR(10) COMMENT "전압 종류",</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1894,20 +1904,20 @@
         <v>95</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F22" s="3">
         <v>10</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>VARCHAR(10)</v>
+        <v>INT(10)</v>
       </c>
       <c r="H22" s="3" t="b">
         <v>1</v>
@@ -1921,7 +1931,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>VLTG_KIND VARCHAR(10) COMMENT "전압 종류",</v>
+        <v>VLTG_NMVL INT(10) COMMENT "전압 수치",</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1932,10 +1942,10 @@
         <v>95</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>68</v>
@@ -1959,7 +1969,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>VLTG_NMVL INT(10) COMMENT "전압 수치",</v>
+        <v>MXMM_ERCRT_NMVL INT(10) COMMENT "최대 전류 수치",</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1970,10 +1980,10 @@
         <v>95</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>68</v>
@@ -1997,7 +2007,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>MXMM_ERCRT_NMVL INT(10) COMMENT "최대 전류 수치",</v>
+        <v>PWRER_NMVL INT(10) COMMENT "전력 수치",</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -2008,10 +2018,10 @@
         <v>95</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>68</v>
@@ -2035,7 +2045,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>PWRER_NMVL INT(10) COMMENT "전력 수치",</v>
+        <v>HZ_NMVL INT(10) COMMENT "Hz 수치",</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -2046,20 +2056,20 @@
         <v>95</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F26" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INT(10)</v>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H26" s="3" t="b">
         <v>1</v>
@@ -2073,7 +2083,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>HZ_NMVL INT(10) COMMENT "Hz 수치",</v>
+        <v>MOTOR_KIND VARCHAR(20) COMMENT "모터 종류",</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2084,10 +2094,10 @@
         <v>95</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>14</v>
@@ -2100,18 +2110,22 @@
         <v>VARCHAR(20)</v>
       </c>
       <c r="H27" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>MOTOR_KIND VARCHAR(20) COMMENT "모터 종류",</v>
+        <v>LERN_DATA_FILE_IDX VARCHAR(20) NOT NULL COMMENT "학습 데이터 파일 IDX",</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -2122,20 +2136,18 @@
         <v>95</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="3">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>VARCHAR(20)</v>
+        <v>DATETIME</v>
       </c>
       <c r="H28" s="3" t="b">
         <v>0</v>
@@ -2143,17 +2155,13 @@
       <c r="I28" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>DATA_FILE_IDX VARCHAR(20) NOT NULL COMMENT "데이터 파일 IDX",</v>
+        <v>INS_DTTM DATETIME NOT NULL COMMENT "등록일시",</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -2164,18 +2172,20 @@
         <v>95</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F29" s="3">
+        <v>15</v>
+      </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DATETIME</v>
+        <v>VARCHAR(15)</v>
       </c>
       <c r="H29" s="3" t="b">
         <v>0</v>
@@ -2189,7 +2199,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INS_DTTM DATETIME NOT NULL COMMENT "등록일시",</v>
+        <v>INS_IP VARCHAR(15) NOT NULL COMMENT "등록 IP",</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -2200,20 +2210,20 @@
         <v>95</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>VARCHAR(15)</v>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H30" s="3" t="b">
         <v>0</v>
@@ -2227,7 +2237,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INS_IP VARCHAR(15) NOT NULL COMMENT "등록 IP",</v>
+        <v>INS_IDX VARCHAR(20) NOT NULL COMMENT "등록 IDX",</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -2238,23 +2248,21 @@
         <v>95</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="3">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>VARCHAR(20)</v>
+        <v>DATETIME</v>
       </c>
       <c r="H31" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="3" t="b">
         <v>0</v>
@@ -2265,7 +2273,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INS_IDX VARCHAR(20) NOT NULL COMMENT "등록 IDX",</v>
+        <v>UPT_DTTM DATETIME COMMENT "수정일시",</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -2276,18 +2284,20 @@
         <v>95</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F32" s="3">
+        <v>15</v>
+      </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DATETIME</v>
+        <v>VARCHAR(15)</v>
       </c>
       <c r="H32" s="3" t="b">
         <v>1</v>
@@ -2301,7 +2311,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>UPT_DTTM DATETIME COMMENT "수정일시",</v>
+        <v>UPT_IP VARCHAR(15) COMMENT "수정 IP",</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2312,20 +2322,20 @@
         <v>95</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>VARCHAR(15)</v>
+        <f t="shared" ref="G33:G64" si="2">CONCATENATE(IF($E33 = "CLOB", "LONGTEXT", $E33),IF(ISBLANK($F33),"",CONCATENATE("(",$F33,")")))</f>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H33" s="3" t="b">
         <v>1</v>
@@ -2338,8 +2348,8 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>UPT_IP VARCHAR(15) COMMENT "수정 IP",</v>
+        <f t="shared" ref="N33:N64" si="3">CONCATENATE($D33, " ", $G33, IF($I33, " PRIMARY KEY", IF($H33, "", " NOT NULL")), IF(ISBLANK($L33), "", CONCATENATE(" DEFAULT ", $L33)), " COMMENT ", """", $C33, """", ",")</f>
+        <v>UPT_IDX VARCHAR(20) COMMENT "수정 IDX",</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2350,20 +2360,18 @@
         <v>95</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="3">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3" t="str">
-        <f t="shared" ref="G34:G65" si="2">CONCATENATE(IF($E34 = "CLOB", "LONGTEXT", $E34),IF(ISBLANK($F34),"",CONCATENATE("(",$F34,")")))</f>
-        <v>VARCHAR(20)</v>
+        <f t="shared" si="2"/>
+        <v>DATETIME</v>
       </c>
       <c r="H34" s="3" t="b">
         <v>1</v>
@@ -2376,8 +2384,8 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="str">
-        <f t="shared" ref="N34:N65" si="3">CONCATENATE($D34, " ", $G34, IF($I34, " PRIMARY KEY", IF($H34, "", " NOT NULL")), IF(ISBLANK($L34), "", CONCATENATE(" DEFAULT ", $L34)), " COMMENT ", """", $C34, """", ",")</f>
-        <v>UPT_IDX VARCHAR(20) COMMENT "수정 IDX",</v>
+        <f t="shared" si="3"/>
+        <v>DEL_DTTM DATETIME COMMENT "삭제일시",</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2388,18 +2396,20 @@
         <v>95</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F35" s="3">
+        <v>15</v>
+      </c>
       <c r="G35" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>DATETIME</v>
+        <v>VARCHAR(15)</v>
       </c>
       <c r="H35" s="3" t="b">
         <v>1</v>
@@ -2413,7 +2423,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>DEL_DTTM DATETIME COMMENT "삭제일시",</v>
+        <v>DEL_IP VARCHAR(15) COMMENT "삭제 IP",</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2424,20 +2434,20 @@
         <v>95</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(15)</v>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H36" s="3" t="b">
         <v>1</v>
@@ -2451,21 +2461,21 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>DEL_IP VARCHAR(15) COMMENT "삭제 IP",</v>
+        <v>DEL_IDX VARCHAR(20) COMMENT "삭제 IDX",</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>14</v>
@@ -2478,18 +2488,20 @@
         <v>VARCHAR(20)</v>
       </c>
       <c r="H37" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+      <c r="M37" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="N37" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>DEL_IDX VARCHAR(20) COMMENT "삭제 IDX",</v>
+        <v>DATA_FILE_IDX VARCHAR(20) PRIMARY KEY COMMENT "데이터 파일 IDX",</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2500,36 +2512,34 @@
         <v>125</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G38" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(20)</v>
+        <v>VARCHAR(200)</v>
       </c>
       <c r="H38" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I38" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="M38" s="3"/>
       <c r="N38" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>DATA_FILE_IDX VARCHAR(20) PRIMARY KEY COMMENT "데이터 파일 IDX",</v>
+        <v>DATA_FILE_NM VARCHAR(200) NOT NULL COMMENT "데이터 파일 이름",</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2540,10 +2550,10 @@
         <v>125</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>14</v>
@@ -2567,7 +2577,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>DATA_FILE_NM VARCHAR(200) NOT NULL COMMENT "데이터 파일 이름",</v>
+        <v>DATA_FILE_DIR VARCHAR(200) NOT NULL COMMENT "데이터 파일 경로",</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -2578,20 +2588,20 @@
         <v>125</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G40" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(200)</v>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H40" s="3" t="b">
         <v>0</v>
@@ -2605,7 +2615,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>DATA_FILE_DIR VARCHAR(200) NOT NULL COMMENT "데이터 파일 경로",</v>
+        <v>REFINE_STTS VARCHAR(20) NOT NULL COMMENT "정제 상태",</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -2616,23 +2626,23 @@
         <v>125</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(20)</v>
+        <v>VARCHAR(200)</v>
       </c>
       <c r="H41" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="3" t="b">
         <v>0</v>
@@ -2643,7 +2653,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>REFINE_STTS VARCHAR(20) NOT NULL COMMENT "정제 상태",</v>
+        <v>REFINE_ERROR_CN VARCHAR(200) COMMENT "정제 오류 내용",</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2654,23 +2664,21 @@
         <v>125</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="3">
-        <v>200</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(200)</v>
+        <v>DATETIME</v>
       </c>
       <c r="H42" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="b">
         <v>0</v>
@@ -2681,7 +2689,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>REFINE_ERROR_CN VARCHAR(200) COMMENT "정제 오류 내용",</v>
+        <v>INS_DTTM DATETIME NOT NULL COMMENT "등록일시",</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2692,18 +2700,20 @@
         <v>125</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F43" s="3">
+        <v>15</v>
+      </c>
       <c r="G43" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>DATETIME</v>
+        <v>VARCHAR(15)</v>
       </c>
       <c r="H43" s="3" t="b">
         <v>0</v>
@@ -2717,7 +2727,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>INS_DTTM DATETIME NOT NULL COMMENT "등록일시",</v>
+        <v>INS_IP VARCHAR(15) NOT NULL COMMENT "등록 IP",</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2728,20 +2738,20 @@
         <v>125</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G44" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(15)</v>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H44" s="3" t="b">
         <v>0</v>
@@ -2755,7 +2765,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>INS_IP VARCHAR(15) NOT NULL COMMENT "등록 IP",</v>
+        <v>INS_IDX VARCHAR(20) NOT NULL COMMENT "등록 IDX",</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2766,23 +2776,21 @@
         <v>125</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="3">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(20)</v>
+        <v>DATETIME</v>
       </c>
       <c r="H45" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="3" t="b">
         <v>0</v>
@@ -2793,7 +2801,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>INS_IDX VARCHAR(20) NOT NULL COMMENT "등록 IDX",</v>
+        <v>UPT_DTTM DATETIME COMMENT "수정일시",</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2804,18 +2812,20 @@
         <v>125</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F46" s="3">
+        <v>15</v>
+      </c>
       <c r="G46" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>DATETIME</v>
+        <v>VARCHAR(15)</v>
       </c>
       <c r="H46" s="3" t="b">
         <v>1</v>
@@ -2829,7 +2839,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>UPT_DTTM DATETIME COMMENT "수정일시",</v>
+        <v>UPT_IP VARCHAR(15) COMMENT "수정 IP",</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2840,20 +2850,20 @@
         <v>125</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(15)</v>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H47" s="3" t="b">
         <v>1</v>
@@ -2867,7 +2877,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>UPT_IP VARCHAR(15) COMMENT "수정 IP",</v>
+        <v>UPT_IDX VARCHAR(20) COMMENT "수정 IDX",</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2878,20 +2888,18 @@
         <v>125</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="3">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(20)</v>
+        <v>DATETIME</v>
       </c>
       <c r="H48" s="3" t="b">
         <v>1</v>
@@ -2905,7 +2913,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>UPT_IDX VARCHAR(20) COMMENT "수정 IDX",</v>
+        <v>DEL_DTTM DATETIME COMMENT "삭제일시",</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -2916,18 +2924,20 @@
         <v>125</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F49" s="3">
+        <v>15</v>
+      </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>DATETIME</v>
+        <v>VARCHAR(15)</v>
       </c>
       <c r="H49" s="3" t="b">
         <v>1</v>
@@ -2941,7 +2951,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>DEL_DTTM DATETIME COMMENT "삭제일시",</v>
+        <v>DEL_IP VARCHAR(15) COMMENT "삭제 IP",</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -2952,20 +2962,20 @@
         <v>125</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G50" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(15)</v>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H50" s="3" t="b">
         <v>1</v>
@@ -2979,21 +2989,21 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>DEL_IP VARCHAR(15) COMMENT "삭제 IP",</v>
+        <v>DEL_IDX VARCHAR(20) COMMENT "삭제 IDX",</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>14</v>
@@ -3006,18 +3016,20 @@
         <v>VARCHAR(20)</v>
       </c>
       <c r="H51" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
+      <c r="M51" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="N51" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>DEL_IDX VARCHAR(20) COMMENT "삭제 IDX",</v>
+        <v>CODE_IDX VARCHAR(20) PRIMARY KEY COMMENT "코드 IDX",</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -3028,36 +3040,34 @@
         <v>97</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G52" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(20)</v>
+        <v>VARCHAR(50)</v>
       </c>
       <c r="H52" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I52" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="M52" s="3"/>
       <c r="N52" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>CODE_IDX VARCHAR(20) PRIMARY KEY COMMENT "코드 IDX",</v>
+        <v>CODE_ID VARCHAR(50) NOT NULL COMMENT "코드 ID",</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -3068,20 +3078,20 @@
         <v>97</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(50)</v>
+        <v>VARCHAR(40)</v>
       </c>
       <c r="H53" s="3" t="b">
         <v>0</v>
@@ -3095,7 +3105,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>CODE_ID VARCHAR(50) NOT NULL COMMENT "코드 ID",</v>
+        <v>CODE_NM VARCHAR(40) NOT NULL COMMENT "코드 명",</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -3106,23 +3116,23 @@
         <v>97</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G54" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(40)</v>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H54" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="3" t="b">
         <v>0</v>
@@ -3133,7 +3143,7 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>CODE_NM VARCHAR(40) NOT NULL COMMENT "코드 명",</v>
+        <v>UPPER_CODE_IDX VARCHAR(20) COMMENT "상위 코드 IDX",</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -3144,20 +3154,20 @@
         <v>97</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G55" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(20)</v>
+        <v>VARCHAR(200)</v>
       </c>
       <c r="H55" s="3" t="b">
         <v>1</v>
@@ -3171,7 +3181,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>UPPER_CODE_IDX VARCHAR(20) COMMENT "상위 코드 IDX",</v>
+        <v>CODE_CN VARCHAR(200) COMMENT "코드 설명",</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3182,20 +3192,20 @@
         <v>97</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F56" s="3">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="G56" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(200)</v>
+        <v>INT(2)</v>
       </c>
       <c r="H56" s="3" t="b">
         <v>1</v>
@@ -3209,7 +3219,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>CODE_CN VARCHAR(200) COMMENT "코드 설명",</v>
+        <v>SORT_ORDR INT(2) COMMENT "정렬 순서",</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -3220,20 +3230,20 @@
         <v>97</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F57" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G57" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>INT(2)</v>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H57" s="3" t="b">
         <v>1</v>
@@ -3247,7 +3257,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>SORT_ORDR INT(2) COMMENT "정렬 순서",</v>
+        <v>CODE_VALUE1 VARCHAR(20) COMMENT "코드 값1",</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -3258,10 +3268,10 @@
         <v>97</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>14</v>
@@ -3285,7 +3295,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>CODE_VALUE1 VARCHAR(20) COMMENT "코드 값1",</v>
+        <v>CODE_VALUE2 VARCHAR(20) COMMENT "코드 값2",</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -3296,23 +3306,21 @@
         <v>97</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="3">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F59" s="3"/>
       <c r="G59" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(20)</v>
+        <v>DATETIME</v>
       </c>
       <c r="H59" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="b">
         <v>0</v>
@@ -3323,7 +3331,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>CODE_VALUE2 VARCHAR(20) COMMENT "코드 값2",</v>
+        <v>INS_DTTM DATETIME NOT NULL COMMENT "등록일시",</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -3334,18 +3342,20 @@
         <v>97</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F60" s="3">
+        <v>15</v>
+      </c>
       <c r="G60" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>DATETIME</v>
+        <v>VARCHAR(15)</v>
       </c>
       <c r="H60" s="3" t="b">
         <v>0</v>
@@ -3359,7 +3369,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>INS_DTTM DATETIME NOT NULL COMMENT "등록일시",</v>
+        <v>INS_IP VARCHAR(15) NOT NULL COMMENT "등록 IP",</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -3370,20 +3380,20 @@
         <v>97</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G61" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(15)</v>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H61" s="3" t="b">
         <v>0</v>
@@ -3397,7 +3407,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>INS_IP VARCHAR(15) NOT NULL COMMENT "등록 IP",</v>
+        <v>INS_IDX VARCHAR(20) NOT NULL COMMENT "등록 IDX",</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -3408,23 +3418,21 @@
         <v>97</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="3">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(20)</v>
+        <v>DATETIME</v>
       </c>
       <c r="H62" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="3" t="b">
         <v>0</v>
@@ -3435,7 +3443,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>INS_IDX VARCHAR(20) NOT NULL COMMENT "등록 IDX",</v>
+        <v>UPT_DTTM DATETIME COMMENT "수정일시",</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -3446,18 +3454,20 @@
         <v>97</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F63" s="3">
+        <v>15</v>
+      </c>
       <c r="G63" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>DATETIME</v>
+        <v>VARCHAR(15)</v>
       </c>
       <c r="H63" s="3" t="b">
         <v>1</v>
@@ -3471,7 +3481,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>UPT_DTTM DATETIME COMMENT "수정일시",</v>
+        <v>UPT_IP VARCHAR(15) COMMENT "수정 IP",</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -3482,20 +3492,20 @@
         <v>97</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G64" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VARCHAR(15)</v>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H64" s="3" t="b">
         <v>1</v>
@@ -3509,7 +3519,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>UPT_IP VARCHAR(15) COMMENT "수정 IP",</v>
+        <v>UPT_IDX VARCHAR(20) COMMENT "수정 IDX",</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -3520,20 +3530,18 @@
         <v>97</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="3">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>VARCHAR(20)</v>
+        <f t="shared" ref="G65:G72" si="4">CONCATENATE(IF($E65 = "CLOB", "LONGTEXT", $E65),IF(ISBLANK($F65),"",CONCATENATE("(",$F65,")")))</f>
+        <v>DATETIME</v>
       </c>
       <c r="H65" s="3" t="b">
         <v>1</v>
@@ -3546,8 +3554,8 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>UPT_IDX VARCHAR(20) COMMENT "수정 IDX",</v>
+        <f t="shared" ref="N65:N71" si="5">CONCATENATE($D65, " ", $G65, IF($I65, " PRIMARY KEY", IF($H65, "", " NOT NULL")), IF(ISBLANK($L65), "", CONCATENATE(" DEFAULT ", $L65)), " COMMENT ", """", $C65, """", ",")</f>
+        <v>DEL_DTTM DATETIME COMMENT "삭제일시",</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -3558,18 +3566,20 @@
         <v>97</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F66" s="3">
+        <v>15</v>
+      </c>
       <c r="G66" s="3" t="str">
-        <f t="shared" ref="G66:G73" si="4">CONCATENATE(IF($E66 = "CLOB", "LONGTEXT", $E66),IF(ISBLANK($F66),"",CONCATENATE("(",$F66,")")))</f>
-        <v>DATETIME</v>
+        <f t="shared" si="4"/>
+        <v>VARCHAR(15)</v>
       </c>
       <c r="H66" s="3" t="b">
         <v>1</v>
@@ -3582,8 +3592,8 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="str">
-        <f t="shared" ref="N66:N72" si="5">CONCATENATE($D66, " ", $G66, IF($I66, " PRIMARY KEY", IF($H66, "", " NOT NULL")), IF(ISBLANK($L66), "", CONCATENATE(" DEFAULT ", $L66)), " COMMENT ", """", $C66, """", ",")</f>
-        <v>DEL_DTTM DATETIME COMMENT "삭제일시",</v>
+        <f t="shared" si="5"/>
+        <v>DEL_IP VARCHAR(15) COMMENT "삭제 IP",</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -3594,20 +3604,20 @@
         <v>97</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G67" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>VARCHAR(15)</v>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H67" s="3" t="b">
         <v>1</v>
@@ -3621,21 +3631,21 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>DEL_IP VARCHAR(15) COMMENT "삭제 IP",</v>
+        <v>DEL_IDX VARCHAR(20) COMMENT "삭제 IDX",</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>14</v>
@@ -3648,18 +3658,20 @@
         <v>VARCHAR(20)</v>
       </c>
       <c r="H68" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
+      <c r="M68" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="N68" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>DEL_IDX VARCHAR(20) COMMENT "삭제 IDX",</v>
+        <v>PPRCSG_IDX VARCHAR(20) PRIMARY KEY COMMENT "전처리 IDX",</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -3670,10 +3682,10 @@
         <v>109</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>14</v>
@@ -3689,17 +3701,15 @@
         <v>0</v>
       </c>
       <c r="I69" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
-      <c r="M69" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="M69" s="3"/>
       <c r="N69" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>PPRCSG_IDX VARCHAR(20) PRIMARY KEY COMMENT "전처리 IDX",</v>
+        <v>PPRCSG_STTS VARCHAR(20) NOT NULL COMMENT "전처리 상태",</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -3710,23 +3720,23 @@
         <v>109</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G70" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>VARCHAR(20)</v>
+        <v>VARCHAR(200)</v>
       </c>
       <c r="H70" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="3" t="b">
         <v>0</v>
@@ -3734,47 +3744,49 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
       <c r="N70" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>PPRCSG_STTS VARCHAR(20) NOT NULL COMMENT "전처리 상태",</v>
+        <v>PPRCSG_ERROR_CN VARCHAR(200) COMMENT "전처리 오류내용",</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G71" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>VARCHAR(200)</v>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H71" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
+      <c r="M71" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="N71" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>PPRCSG_ERROR_CN VARCHAR(200) COMMENT "전처리 오류내용",</v>
+        <v>DGNSS_IDX VARCHAR(20) PRIMARY KEY COMMENT "진단 IDX",</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -3784,11 +3796,11 @@
       <c r="B72" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>115</v>
+      <c r="C72" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>14</v>
@@ -3804,17 +3816,15 @@
         <v>0</v>
       </c>
       <c r="I72" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="M72" s="3"/>
       <c r="N72" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>DGNSS_IDX VARCHAR(20) PRIMARY KEY COMMENT "진단 IDX",</v>
+        <f t="shared" ref="N72:N93" si="6">CONCATENATE($D72, " ", $G72, IF($I72, " PRIMARY KEY", IF($H72, "", " NOT NULL")), IF(ISBLANK($L72), "", CONCATENATE(" DEFAULT ", $L72)), " COMMENT ", """", $C72, """", ",")</f>
+        <v>DGNSS_STTS VARCHAR(20) NOT NULL COMMENT "진단 상태",</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -3825,23 +3835,23 @@
         <v>112</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G73" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>VARCHAR(20)</v>
+        <f t="shared" ref="G73:G82" si="7">CONCATENATE(IF($E73 = "CLOB", "LONGTEXT", $E73),IF(ISBLANK($F73),"",CONCATENATE("(",$F73,")")))</f>
+        <v>VARCHAR(200)</v>
       </c>
       <c r="H73" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="3" t="b">
         <v>0</v>
@@ -3851,8 +3861,8 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3" t="str">
-        <f t="shared" ref="N73:N93" si="6">CONCATENATE($D73, " ", $G73, IF($I73, " PRIMARY KEY", IF($H73, "", " NOT NULL")), IF(ISBLANK($L73), "", CONCATENATE(" DEFAULT ", $L73)), " COMMENT ", """", $C73, """", ",")</f>
-        <v>DGNSS_STTS VARCHAR(20) NOT NULL COMMENT "진단 상태",</v>
+        <f t="shared" si="6"/>
+        <v>DGNSS_ERROR_CN VARCHAR(200) COMMENT "진단 오류내용",</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -3863,20 +3873,20 @@
         <v>112</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>131</v>
+        <v>98</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G74" s="3" t="str">
-        <f t="shared" ref="G74:G82" si="7">CONCATENATE(IF($E74 = "CLOB", "LONGTEXT", $E74),IF(ISBLANK($F74),"",CONCATENATE("(",$F74,")")))</f>
-        <v>VARCHAR(200)</v>
+        <f t="shared" si="7"/>
+        <v>VARCHAR(20)</v>
       </c>
       <c r="H74" s="3" t="b">
         <v>1</v>
@@ -3890,7 +3900,7 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>DGNSS_ERROR_CN VARCHAR(200) COMMENT "진단 오류내용",</v>
+        <v>SRL_NO VARCHAR(20) COMMENT "시리얼 번호",</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -3901,10 +3911,10 @@
         <v>112</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>14</v>
@@ -3917,18 +3927,22 @@
         <v>VARCHAR(20)</v>
       </c>
       <c r="H75" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
+      <c r="J75" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>SRL_NO VARCHAR(20) COMMENT "시리얼 번호",</v>
+        <v>ERCRT_DATA_FILE_IDX VARCHAR(20) NOT NULL COMMENT "전류데이터 파일 IDX",</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -3939,10 +3953,10 @@
         <v>112</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>14</v>
@@ -3970,7 +3984,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>ERCRT_DATA_FILE_IDX VARCHAR(20) NOT NULL COMMENT "전류데이터 파일 IDX",</v>
+        <v>MFLX_DATA_FILE_IDX VARCHAR(20) NOT NULL COMMENT "자속데이터 파일 IDX",</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -3980,11 +3994,11 @@
       <c r="B77" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>128</v>
+      <c r="C77" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>14</v>
@@ -4003,16 +4017,16 @@
         <v>0</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>MFLX_DATA_FILE_IDX VARCHAR(20) NOT NULL COMMENT "자속데이터 파일 IDX",</v>
+        <v>MOTOR_IDX VARCHAR(20) NOT NULL COMMENT "모터 IDX",</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">

--- a/Database Design/2021-04-02/에이소프트 논리데이터베이스 명세서 v1.0.xlsx
+++ b/Database Design/2021-04-02/에이소프트 논리데이터베이스 명세서 v1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GB-DEV-009\Documents\git_moreOne\Database Design\2021-04-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GB-DEV-009\Desktop\에이소프트\0. 에이소프트 신규 작업\DB 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8C9491-CC7E-4AF3-A491-0BFFD1FA9A11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A98E03-0DEF-41BB-8309-41316E05CD0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{3698464E-08BC-4E05-AA62-D1958DFB46C6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="149">
   <si>
     <t>논리테이블명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -199,18 +199,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>대기'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO INCREMENT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>모터 정보</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -591,10 +579,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>차트에 그리는 데이터는 어떻게 처리할 것인가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DGNSS_KIND</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -628,6 +612,14 @@
   </si>
   <si>
     <t>LERN_DATA_FILE_IDX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"대기"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"USER"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1068,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E90B04-284A-45F6-871D-4A5CEA361862}">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -1166,9 +1158,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="M2" s="3"/>
       <c r="N2" s="3" t="str">
         <f t="shared" ref="N2:N32" si="1">CONCATENATE($D2, " ", $G2, IF($I2, " PRIMARY KEY", IF($H2, "", " NOT NULL")), IF(ISBLANK($L2), "", CONCATENATE(" DEFAULT ", $L2)), " COMMENT ", """", $C2, """", ",")</f>
         <v>ENTRP_IDX VARCHAR(20) PRIMARY KEY COMMENT "기업 IDX",</v>
@@ -1179,7 +1169,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -1217,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -1255,10 +1245,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>29</v>
@@ -1293,10 +1283,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
@@ -1331,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>20</v>
@@ -1369,7 +1359,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>21</v>
@@ -1396,12 +1386,12 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="5" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ENTRP_STTS VARCHAR(20) NOT NULL DEFAULT 대기' COMMENT "회원 상태",</v>
+        <v>ENTRP_STTS VARCHAR(20) NOT NULL DEFAULT "대기" COMMENT "회원 상태",</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1409,7 +1399,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>22</v>
@@ -1436,12 +1426,12 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="5" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ENTRP_ATHRY VARCHAR(20) NOT NULL DEFAULT USER' COMMENT "회원 권한",</v>
+        <v>ENTRP_ATHRY VARCHAR(20) NOT NULL DEFAULT "USER" COMMENT "회원 권한",</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1449,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>23</v>
@@ -1485,10 +1475,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -1523,10 +1513,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>34</v>
@@ -1561,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>24</v>
@@ -1597,10 +1587,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>36</v>
@@ -1635,10 +1625,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>37</v>
@@ -1673,7 +1663,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>25</v>
@@ -1709,10 +1699,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>39</v>
@@ -1747,10 +1737,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>40</v>
@@ -1782,16 +1772,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
@@ -1812,9 +1802,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="M19" s="3"/>
       <c r="N19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>MOTOR_IDX VARCHAR(20) PRIMARY KEY COMMENT "모터 IDX",</v>
@@ -1822,16 +1810,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>14</v>
@@ -1860,16 +1848,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>14</v>
@@ -1898,19 +1886,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F22" s="3">
         <v>10</v>
@@ -1936,19 +1924,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F23" s="3">
         <v>10</v>
@@ -1974,19 +1962,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F24" s="3">
         <v>10</v>
@@ -2012,19 +2000,19 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F25" s="3">
         <v>10</v>
@@ -2050,16 +2038,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>14</v>
@@ -2088,16 +2076,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>14</v>
@@ -2116,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2130,10 +2118,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>23</v>
@@ -2166,13 +2154,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>33</v>
@@ -2204,13 +2192,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>34</v>
@@ -2242,10 +2230,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>24</v>
@@ -2278,13 +2266,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>36</v>
@@ -2316,13 +2304,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>37</v>
@@ -2354,10 +2342,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>25</v>
@@ -2390,13 +2378,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>39</v>
@@ -2428,13 +2416,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>40</v>
@@ -2466,16 +2454,16 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>14</v>
@@ -2496,9 +2484,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="M37" s="3"/>
       <c r="N37" s="3" t="str">
         <f t="shared" si="3"/>
         <v>DATA_FILE_IDX VARCHAR(20) PRIMARY KEY COMMENT "데이터 파일 IDX",</v>
@@ -2506,16 +2492,16 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>14</v>
@@ -2544,16 +2530,16 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>14</v>
@@ -2582,16 +2568,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>14</v>
@@ -2620,16 +2606,16 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>14</v>
@@ -2658,10 +2644,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>23</v>
@@ -2694,13 +2680,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>33</v>
@@ -2732,13 +2718,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>34</v>
@@ -2770,10 +2756,10 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>24</v>
@@ -2806,13 +2792,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>36</v>
@@ -2844,13 +2830,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>37</v>
@@ -2882,10 +2868,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>25</v>
@@ -2918,13 +2904,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>39</v>
@@ -2956,13 +2942,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>40</v>
@@ -2994,16 +2980,16 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>14</v>
@@ -3024,9 +3010,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="M51" s="3"/>
       <c r="N51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>CODE_IDX VARCHAR(20) PRIMARY KEY COMMENT "코드 IDX",</v>
@@ -3034,16 +3018,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>14</v>
@@ -3072,16 +3056,16 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>14</v>
@@ -3110,16 +3094,16 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>14</v>
@@ -3148,16 +3132,16 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>14</v>
@@ -3186,19 +3170,19 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="E56" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F56" s="3">
         <v>2</v>
@@ -3224,16 +3208,16 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>14</v>
@@ -3262,16 +3246,16 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>14</v>
@@ -3300,10 +3284,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>23</v>
@@ -3336,13 +3320,13 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>33</v>
@@ -3374,13 +3358,13 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>34</v>
@@ -3412,10 +3396,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>24</v>
@@ -3448,13 +3432,13 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>36</v>
@@ -3486,13 +3470,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>37</v>
@@ -3524,10 +3508,10 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>25</v>
@@ -3560,13 +3544,13 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>39</v>
@@ -3598,13 +3582,13 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>40</v>
@@ -3636,16 +3620,16 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>14</v>
@@ -3666,9 +3650,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-      <c r="M68" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="M68" s="3"/>
       <c r="N68" s="3" t="str">
         <f t="shared" si="5"/>
         <v>PPRCSG_IDX VARCHAR(20) PRIMARY KEY COMMENT "전처리 IDX",</v>
@@ -3676,16 +3658,16 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>14</v>
@@ -3714,16 +3696,16 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>14</v>
@@ -3751,16 +3733,16 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>14</v>
@@ -3781,9 +3763,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="M71" s="3"/>
       <c r="N71" s="3" t="str">
         <f t="shared" si="5"/>
         <v>DGNSS_IDX VARCHAR(20) PRIMARY KEY COMMENT "진단 IDX",</v>
@@ -3791,16 +3771,16 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>14</v>
@@ -3829,16 +3809,16 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>14</v>
@@ -3867,16 +3847,16 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>14</v>
@@ -3905,16 +3885,16 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>14</v>
@@ -3933,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -3947,16 +3927,16 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>14</v>
@@ -3975,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -3989,16 +3969,16 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>14</v>
@@ -4017,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -4031,16 +4011,16 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>16</v>
@@ -4067,16 +4047,16 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>14</v>
@@ -4095,10 +4075,10 @@
         <v>0</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -4109,16 +4089,16 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>14</v>
@@ -4137,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -4151,16 +4131,16 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>14</v>
@@ -4179,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -4193,16 +4173,16 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>14</v>
@@ -4221,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -4235,10 +4215,10 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>23</v>
@@ -4271,13 +4251,13 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>33</v>
@@ -4309,13 +4289,13 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>34</v>
@@ -4347,10 +4327,10 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>25</v>
@@ -4383,13 +4363,13 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>39</v>
@@ -4421,13 +4401,13 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>40</v>
@@ -4459,16 +4439,16 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>14</v>
@@ -4489,9 +4469,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
-      <c r="M89" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="M89" s="3"/>
       <c r="N89" s="3" t="str">
         <f t="shared" si="6"/>
         <v>DGNSS_RSRT_IDX VARCHAR(20) PRIMARY KEY COMMENT "진단 결과 IDX",</v>
@@ -4499,16 +4477,16 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>14</v>
@@ -4537,16 +4515,16 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>14</v>
@@ -4575,16 +4553,16 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>14</v>
@@ -4613,16 +4591,16 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D93" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>14</v>
@@ -4649,11 +4627,6 @@
         <v>ECTY_FLW_VAL VARCHAR(10) NOT NULL COMMENT "편심 결함 값",</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>141</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
